--- a/Projects/3_Adversarial Search/report/results.xlsx
+++ b/Projects/3_Adversarial Search/report/results.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="LongFormat" sheetId="2" r:id="rId2"/>
+    <sheet name="Output" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="15">
   <si>
     <t>Random</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Combined</t>
   </si>
   <si>
-    <t>that</t>
-  </si>
-  <si>
     <t>cant</t>
   </si>
   <si>
@@ -63,12 +60,18 @@
   <si>
     <t>Custom Agent Settings</t>
   </si>
+  <si>
+    <t>over time limit</t>
+  </si>
+  <si>
+    <t>Moves (baseline)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +80,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -442,32 +453,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -484,22 +477,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
@@ -509,11 +487,54 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -797,429 +818,429 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="34" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="41">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="25">
+        <v>0.84</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.46</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="39"/>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="26">
+        <v>0.82</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.43</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="39"/>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="26">
+        <v>0.88</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.69</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="39"/>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="26">
+        <v>0.83</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.69</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="40"/>
+      <c r="B7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="C7" s="27">
+        <v>0.95</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0.76</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="42">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>1</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="B8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="36">
-        <v>0.84</v>
-      </c>
-      <c r="D3" s="16">
-        <v>0.46</v>
-      </c>
-      <c r="E3" s="17">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4" t="s">
+      <c r="C8" s="28">
+        <v>0.86</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="43"/>
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="37">
-        <v>0.82</v>
-      </c>
-      <c r="D4" s="18">
-        <v>0.43</v>
-      </c>
-      <c r="E4" s="19">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="37">
-        <v>0.88</v>
-      </c>
-      <c r="D5" s="18">
-        <v>0.69</v>
-      </c>
-      <c r="E5" s="19">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="37">
-        <v>0.83</v>
-      </c>
-      <c r="D6" s="18">
-        <v>0.69</v>
-      </c>
-      <c r="E6" s="19">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="38">
-        <v>0.95</v>
-      </c>
-      <c r="D7" s="20">
-        <v>0.76</v>
-      </c>
-      <c r="E7" s="21">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
-        <v>2</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="39">
-        <v>0.86</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0.53</v>
-      </c>
-      <c r="E8" s="28">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="40">
+      <c r="C9" s="29">
         <v>0.74</v>
       </c>
       <c r="D9" s="1">
         <v>0.53</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="20">
         <v>0.26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="43"/>
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="29">
         <v>0.94</v>
       </c>
       <c r="D10" s="1">
         <v>0.7</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="20">
         <v>0.51</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="43"/>
+      <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="29">
         <v>0.87</v>
       </c>
       <c r="D11" s="1">
         <v>0.75</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="20">
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
-      <c r="B12" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="41">
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="44"/>
+      <c r="B12" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="30">
         <v>0.94</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="9">
         <v>0.69</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="21">
         <v>0.42</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="29">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="43">
         <v>3</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="31">
         <v>0.95</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="16">
         <v>0.62</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="17">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="43"/>
+      <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="26">
         <v>0.9</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="12">
         <v>0.66</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="13">
         <v>0.35</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="43"/>
+      <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="26">
         <v>0.96</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="12">
         <v>0.8</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="13">
         <v>0.68</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="4" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="43"/>
+      <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="26">
         <v>0.98</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="12">
         <v>0.82</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="13">
         <v>0.63</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="43" t="s">
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="43"/>
+      <c r="B17" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="32">
+        <v>0.98</v>
+      </c>
+      <c r="D17" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="E17" s="19">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="42">
+        <v>4</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="25">
+        <v>0.96</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="43"/>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="26">
+        <v>0.91</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="43"/>
+      <c r="B20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="24">
-        <v>0.8</v>
-      </c>
-      <c r="E17" s="25">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="31">
+      <c r="D20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="43"/>
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="44"/>
+      <c r="B22" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="27">
+        <v>0.98</v>
+      </c>
+      <c r="D22" s="14">
+        <v>0.88</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="38">
+        <v>5</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="31">
+        <v>0.93</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0.83</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="39"/>
+      <c r="B24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="26">
+        <v>0.92</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0.71</v>
+      </c>
+      <c r="E24" s="13">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="39"/>
+      <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="36">
-        <v>0.96</v>
-      </c>
-      <c r="D18" s="16">
-        <v>0.76</v>
-      </c>
-      <c r="E18" s="17">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="37">
-        <v>0.91</v>
-      </c>
-      <c r="D19" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="E19" s="19">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="4" t="s">
+      <c r="C25" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="39"/>
+      <c r="B26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
-      <c r="B22" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="38">
-        <v>0.98</v>
-      </c>
-      <c r="D22" s="20">
-        <v>0.88</v>
-      </c>
-      <c r="E22" s="21">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
-        <v>5</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="42">
+      <c r="C26" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="40"/>
+      <c r="B27" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="30">
+        <v>1</v>
+      </c>
+      <c r="D27" s="9">
         <v>0.93</v>
       </c>
-      <c r="D23" s="22">
-        <v>0.83</v>
-      </c>
-      <c r="E23" s="23">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="37">
-        <v>0.92</v>
-      </c>
-      <c r="D24" s="18">
-        <v>0.71</v>
-      </c>
-      <c r="E24" s="19">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="41">
-        <v>1</v>
-      </c>
-      <c r="D27" s="15">
-        <v>0.93</v>
-      </c>
-      <c r="E27" s="30">
+      <c r="E27" s="23">
         <v>0.8</v>
       </c>
     </row>
@@ -1240,12 +1261,368 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="41">
+        <v>1</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="48">
+        <v>0.84</v>
+      </c>
+      <c r="D3" s="49">
+        <v>0.46</v>
+      </c>
+      <c r="E3" s="50">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="39"/>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="26">
+        <v>0.82</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.43</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="39"/>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="26">
+        <v>0.88</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.69</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="40"/>
+      <c r="B6" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="27">
+        <v>0.95</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0.76</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="42">
+        <v>2</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="51">
+        <v>0.86</v>
+      </c>
+      <c r="D7" s="52">
+        <v>0.53</v>
+      </c>
+      <c r="E7" s="53">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="43"/>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="29">
+        <v>0.74</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="43"/>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="29">
+        <v>0.94</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E9" s="20">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="44"/>
+      <c r="B10" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="30">
+        <v>0.94</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.69</v>
+      </c>
+      <c r="E10" s="21">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="43">
+        <v>3</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="54">
+        <v>0.95</v>
+      </c>
+      <c r="D11" s="55">
+        <v>0.62</v>
+      </c>
+      <c r="E11" s="56">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="43"/>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.66</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="43"/>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="26">
+        <v>0.96</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="43"/>
+      <c r="B14" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="32">
+        <v>0.98</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="42">
+        <v>4</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="48">
+        <v>0.96</v>
+      </c>
+      <c r="D15" s="49">
+        <v>0.76</v>
+      </c>
+      <c r="E15" s="50">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="43"/>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0.91</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="43"/>
+      <c r="B17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="44"/>
+      <c r="B18" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="27">
+        <v>0.98</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0.88</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="38">
+        <v>5</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="54">
+        <v>0.93</v>
+      </c>
+      <c r="D19" s="55">
+        <v>0.83</v>
+      </c>
+      <c r="E19" s="56">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="39"/>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="26">
+        <v>0.92</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0.71</v>
+      </c>
+      <c r="E20" s="13">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="39"/>
+      <c r="B21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="40"/>
+      <c r="B22" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="30">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.93</v>
+      </c>
+      <c r="E22" s="23">
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>